--- a/創建neo4j資料庫/neo4j通路類別.xlsx
+++ b/創建neo4j資料庫/neo4j通路類別.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\創建neo4j資料庫\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\test\Ucard-1\創建neo4j資料庫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04126EE5-5326-4560-AF09-C411724510FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD5945-BE8C-457F-87BB-16A92B0F3685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0202DF2D-DE02-4094-94A2-9B2FD4A67312}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="155">
   <si>
     <t>category</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,10 +138,6 @@
   </si>
   <si>
     <t>電商購物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -956,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4326419C-B4C1-4C40-AEE7-9DA61405FB55}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -971,12 +967,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -991,12 +987,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1087,7 +1083,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1112,17 +1108,17 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352286E1-A31A-4544-A1A3-3571923DB57A}">
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1155,23 +1151,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1187,204 +1183,204 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>4</v>
@@ -1392,10 +1388,10 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1403,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1411,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1419,15 +1415,15 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1435,15 +1431,15 @@
         <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1451,47 +1447,47 @@
         <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1499,47 +1495,47 @@
         <v>12</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1547,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1555,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1563,15 +1559,15 @@
         <v>14</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1579,119 +1575,119 @@
         <v>15</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1699,23 +1695,23 @@
         <v>17</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1723,7 +1719,7 @@
         <v>20</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1731,7 +1727,7 @@
         <v>21</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1739,7 +1735,7 @@
         <v>21</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1747,7 +1743,7 @@
         <v>21</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1755,7 +1751,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1763,79 +1759,79 @@
         <v>21</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1843,7 +1839,7 @@
         <v>23</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1851,7 +1847,7 @@
         <v>23</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1859,7 +1855,7 @@
         <v>23</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1867,7 +1863,7 @@
         <v>24</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1875,7 +1871,7 @@
         <v>24</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1883,7 +1879,7 @@
         <v>24</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1891,127 +1887,127 @@
         <v>25</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
